--- a/artfynd/A 33137-2021.xlsx
+++ b/artfynd/A 33137-2021.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>91489339</v>
+        <v>75185465</v>
       </c>
       <c r="B2" t="n">
         <v>96239</v>
@@ -726,7 +726,7 @@
         <v>7023253.006411304</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -774,18 +774,19 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Sofie Jonsson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Via Erland Lindblad</t>
+          <t>Sofie Jonsson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
